--- a/SubRES_TMPL/SubRes_New-CHP-DH_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_New-CHP-DH_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\Adv_demo\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B067AA-7865-477D-9C62-FB20DC90A9BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9215D5-B77E-4BB7-AA12-1B809B1EDBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Param_Transformation" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>~TFM_AVA</t>
   </si>
@@ -75,12 +75,18 @@
   </si>
   <si>
     <t>AllRegions</t>
+  </si>
+  <si>
+    <t>RSDHET</t>
+  </si>
+  <si>
+    <t>PSET_CO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,12 +476,15 @@
     <col min="14" max="14" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -513,7 +522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -521,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -553,6 +562,34 @@
         <v>1</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
@@ -562,7 +599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -574,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -586,7 +623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
